--- a/data/Survey-Data.xlsx
+++ b/data/Survey-Data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottbest/Documents/MCB517A/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC60CD-5365-1D41-8533-D9F39AEBF816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="900" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2013" sheetId="1" r:id="rId1"/>
-    <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="Organized Data" sheetId="3" r:id="rId1"/>
+    <sheet name="2013" sheetId="1" r:id="rId2"/>
+    <sheet name="2014" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
   <si>
     <t>NA</t>
   </si>
@@ -140,16 +141,35 @@
   </si>
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
+  </si>
+  <si>
+    <t>Date_Collected</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Weight_(g)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Calibrated_Correctly</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +182,13 @@
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="28"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -177,17 +199,25 @@
       <b/>
       <sz val="24"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF808080"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -317,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,6 +370,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,11 +839,1257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2710CA-6EC2-3042-A6D4-AE648B5A5A36}">
+  <dimension ref="A1:F130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>41471</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>41471</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24">
+        <v>7</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
+        <v>33</v>
+      </c>
+      <c r="F3" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>41471</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>41471</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>41473</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <v>40</v>
+      </c>
+      <c r="F6" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <v>41473</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="24">
+        <v>7</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>48</v>
+      </c>
+      <c r="F7" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>41473</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="24">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>41473</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>37</v>
+      </c>
+      <c r="F9" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>41505</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="24">
+        <v>8</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="24">
+        <v>52</v>
+      </c>
+      <c r="F10" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>41564</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="24">
+        <v>3</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="24">
+        <v>33</v>
+      </c>
+      <c r="F11" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>41564</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="24">
+        <v>3</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="24">
+        <v>50</v>
+      </c>
+      <c r="F12" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="23">
+        <v>41618</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="24">
+        <v>9</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="24">
+        <v>40</v>
+      </c>
+      <c r="F13" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>41618</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="24">
+        <v>45</v>
+      </c>
+      <c r="F14" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>41619</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="24">
+        <v>8</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="24">
+        <v>41</v>
+      </c>
+      <c r="F15" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>41590</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="24">
+        <v>9</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="24">
+        <v>117</v>
+      </c>
+      <c r="F16" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="24">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="24">
+        <v>126</v>
+      </c>
+      <c r="F17" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="24">
+        <v>17</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>132</v>
+      </c>
+      <c r="F18" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="24">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="24">
+        <v>113</v>
+      </c>
+      <c r="F19" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="24">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="24">
+        <v>122</v>
+      </c>
+      <c r="F20" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="24">
+        <v>107</v>
+      </c>
+      <c r="F21" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>41591</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="24">
+        <v>4</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="24">
+        <v>115</v>
+      </c>
+      <c r="F22" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>41648</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="25">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="24">
+        <v>40</v>
+      </c>
+      <c r="F23" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>41648</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="25">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="24">
+        <v>36</v>
+      </c>
+      <c r="F24" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="23">
+        <v>41711</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="24">
+        <v>51</v>
+      </c>
+      <c r="F25" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="23">
+        <v>41711</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="25">
+        <v>1</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="24">
+        <v>44</v>
+      </c>
+      <c r="F26" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="23">
+        <v>41711</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="25">
+        <v>1</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="24">
+        <v>146</v>
+      </c>
+      <c r="F27" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="25">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="25">
+        <v>2</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>44</v>
+      </c>
+      <c r="F29" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="25">
+        <v>2</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24">
+        <v>7</v>
+      </c>
+      <c r="F30" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="25">
+        <v>2</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="24">
+        <v>45</v>
+      </c>
+      <c r="F31" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="25">
+        <v>2</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="25">
+        <v>2</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25">
+        <v>157</v>
+      </c>
+      <c r="F33" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>41647</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>41688</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="25">
+        <v>218</v>
+      </c>
+      <c r="F35" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="23">
+        <v>41688</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="25">
+        <v>2</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="24">
+        <v>7</v>
+      </c>
+      <c r="F36" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="23">
+        <v>41688</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="25">
+        <v>2</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24">
+        <v>52</v>
+      </c>
+      <c r="F37" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="23">
+        <v>42311</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="25">
+        <v>3</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24">
+        <v>8</v>
+      </c>
+      <c r="F38" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="23">
+        <v>42102</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="25">
+        <v>3</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="23">
+        <v>42130</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="25">
+        <v>3</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="23">
+        <v>42142</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="25">
+        <v>3</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="24">
+        <v>182</v>
+      </c>
+      <c r="F41" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="23">
+        <v>42164</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="25">
+        <v>3</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="24">
+        <v>29</v>
+      </c>
+      <c r="F42" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="23">
+        <v>42193</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="25">
+        <v>3</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="24">
+        <v>115</v>
+      </c>
+      <c r="F43" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>42193</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="25">
+        <v>3</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="24">
+        <v>190</v>
+      </c>
+      <c r="F44" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
+        <v>28498</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="25">
+        <v>4</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="24">
+        <v>37</v>
+      </c>
+      <c r="F45" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
+        <v>28498</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="25">
+        <v>4</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="23">
+        <v>28498</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="25">
+        <v>4</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="24">
+        <v>48</v>
+      </c>
+      <c r="F47" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
+        <v>28498</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="25">
+        <v>4</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="24">
+        <v>52</v>
+      </c>
+      <c r="F48" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
+        <v>28498</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="25">
+        <v>4</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="24">
+        <v>35</v>
+      </c>
+      <c r="F49" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="22"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="22"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="22"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="22"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="22"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="22"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="22"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="22"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="22"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="22"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="22"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="22"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="22"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="22"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="22"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="22"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="22"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="22"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="22"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="22"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="22"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="22"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="22"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="22"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="22"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="22"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="22"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="22"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="22"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="22"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="22"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="22"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="22"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="22"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="22"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="22"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="22"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="22"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="22"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="22"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="22"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="22"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="22"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="22"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="22"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="22"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="22"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="22"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="22"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="22"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="22"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="22"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="22"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="22"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="22"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="22"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="B2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -1406,12 +2695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>

--- a/data/Survey-Data.xlsx
+++ b/data/Survey-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottbest/Documents/MCB517A/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CC60CD-5365-1D41-8533-D9F39AEBF816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B141D17C-2010-6641-B885-2D33DFB23E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="900" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="840" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organized Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
     <t>NA</t>
   </si>
@@ -774,7 +774,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -818,7 +818,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -843,7 +843,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1635,7 +1635,9 @@
       <c r="D39" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="F39" s="25" t="b">
         <v>1</v>
       </c>
@@ -1644,14 +1646,18 @@
       <c r="A40" s="23">
         <v>42130</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C40" s="25">
         <v>3</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="F40" s="25" t="b">
         <v>1</v>
       </c>
